--- a/src/P07_af_all/T08_ml_auto_optuna_6061/S02_combine_study.xlsx
+++ b/src/P07_af_all/T08_ml_auto_optuna_6061/S02_combine_study.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,21 +518,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-1_TS-0_3</t>
+          <t>study_ElasticNet_RS-1_TS-0_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -542,57 +542,57 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 197, 'learning_rate': 0.021625081253252996, 'max_depth': 10, 'min_samples_split': 63, 'min_samples_leaf': 37, 'subsample': 0.5397277774233483, 'max_features': 0.5, 'loss': 'huber'}</t>
+          <t>{'alpha': 0.1745747704251335, 'l1_ratio': 0.44073959160235854, 'fit_intercept': False, 'positive': False, 'max_iter': 281, 'tol': 4.115643511171294e-06, 'selection': 'random', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.08714062504363269</v>
+        <v>-0.07754364013404853</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9121918720588038</v>
+        <v>0.9223739415899918</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02605758239044841</v>
+        <v>0.04633798357433971</v>
       </c>
       <c r="L2" t="n">
-        <v>1.290804394682744</v>
+        <v>1.206488372251498</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05073132814820824</v>
+        <v>0.1391383422486253</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08714062504363269</v>
+        <v>0.07754364013404853</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006242707451227789</v>
+        <v>0.01904003645506085</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 197, 'learning_rate': 0.021625081253252996, 'max_depth': 10, 'min_samples_split': 63, 'min_samples_leaf': 37, 'subsample': 0.5397277774233483, 'max_features': 0.5, 'loss': 'huber'}</t>
+          <t>{'alpha': 0.1745747704251335, 'l1_ratio': 0.44073959160235854, 'fit_intercept': False, 'positive': False, 'max_iter': 281, 'tol': 4.115643511171294e-06, 'selection': 'random', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-2_TS-0_3</t>
+          <t>study_ElasticNet_RS-2_TS-0_3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -602,57 +602,57 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 381, 'learning_rate': 0.01573348279860615, 'max_depth': 10, 'min_samples_split': 19, 'min_samples_leaf': 49, 'subsample': 0.5581852751494744, 'max_features': 'log2', 'loss': 'huber'}</t>
+          <t>{'alpha': 5.853592211305981, 'l1_ratio': 0.0021004810389950793, 'fit_intercept': False, 'positive': False, 'max_iter': 113, 'tol': 3.0955337377407327e-05, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.07271485234818194</v>
+        <v>-0.04372891642139106</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9243137737522029</v>
+        <v>0.954994851084416</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07659614354188449</v>
+        <v>0.09591793726864611</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37902402086977</v>
+        <v>1.321692235508102</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3292211399212737</v>
+        <v>0.2506883709209093</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07271485234818194</v>
+        <v>0.04372891642139106</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03375735730261314</v>
+        <v>0.02373625701480121</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 381, 'learning_rate': 0.01573348279860615, 'max_depth': 10, 'min_samples_split': 19, 'min_samples_leaf': 49, 'subsample': 0.5581852751494744, 'max_features': 'log2', 'loss': 'huber'}</t>
+          <t>{'alpha': 5.853592211305981, 'l1_ratio': 0.0021004810389950793, 'fit_intercept': False, 'positive': False, 'max_iter': 113, 'tol': 3.0955337377407327e-05, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-3_TS-0_3</t>
+          <t>study_ElasticNet_RS-3_TS-0_3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -662,57 +662,57 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'n_estimators': 69, 'learning_rate': 0.020830080860128865, 'max_depth': 5, 'min_samples_split': 48, 'min_samples_leaf': 16, 'subsample': 0.5138260635818712, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
+          <t>{'alpha': 5.2191398111036, 'l1_ratio': 9.085665513705403e-05, 'fit_intercept': False, 'positive': False, 'max_iter': 4280, 'tol': 0.05384219099273157, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.01429232323260687</v>
+        <v>-0.02307537784775826</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9762250537955265</v>
+        <v>0.9687612806237412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05665479386654577</v>
+        <v>0.06946358133553025</v>
       </c>
       <c r="L4" t="n">
-        <v>1.281922400295209</v>
+        <v>1.211406430306145</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1435099558451205</v>
+        <v>0.09962509951887692</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01429232323260687</v>
+        <v>0.02307537784775826</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03214071087907837</v>
+        <v>0.01772290107015058</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'n_estimators': 69, 'learning_rate': 0.020830080860128865, 'max_depth': 5, 'min_samples_split': 48, 'min_samples_leaf': 16, 'subsample': 0.5138260635818712, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
+          <t>{'alpha': 5.2191398111036, 'l1_ratio': 9.085665513705403e-05, 'fit_intercept': False, 'positive': False, 'max_iter': 4280, 'tol': 0.05384219099273157, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-4_TS-0_3</t>
+          <t>study_ElasticNet_RS-4_TS-0_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -722,57 +722,57 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 438, 'learning_rate': 0.008411760263955457, 'max_depth': 4, 'min_samples_split': 81, 'min_samples_leaf': 38, 'subsample': 0.5358716092600937, 'max_features': 'log2', 'loss': 'squared_error'}</t>
+          <t>{'alpha': 5.033232229311128, 'l1_ratio': 0.00026211230471318014, 'fit_intercept': False, 'positive': False, 'max_iter': 860, 'tol': 0.0011996378215737684, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.05458853319513116</v>
+        <v>-0.05045270570517443</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9477679783008434</v>
+        <v>0.9493136143237612</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1559551333475172</v>
+        <v>0.1393718207797007</v>
       </c>
       <c r="L5" t="n">
-        <v>2.082039684819901</v>
+        <v>1.948366111771478</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05259134927407665</v>
+        <v>0.5050851312308023</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05458853319513116</v>
+        <v>0.05045270570517443</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02916958656846951</v>
+        <v>0.01356296625046548</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 438, 'learning_rate': 0.008411760263955457, 'max_depth': 4, 'min_samples_split': 81, 'min_samples_leaf': 38, 'subsample': 0.5358716092600937, 'max_features': 'log2', 'loss': 'squared_error'}</t>
+          <t>{'alpha': 5.033232229311128, 'l1_ratio': 0.00026211230471318014, 'fit_intercept': False, 'positive': False, 'max_iter': 860, 'tol': 0.0011996378215737684, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-5_TS-0_3</t>
+          <t>study_ElasticNet_RS-5_TS-0_3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -782,57 +782,57 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'n_estimators': 205, 'learning_rate': 0.010128226755057453, 'max_depth': 9, 'min_samples_split': 18, 'min_samples_leaf': 38, 'subsample': 0.5982917446158116, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
+          <t>{'alpha': 3.1686405824638593, 'l1_ratio': 0.0005064810187139907, 'fit_intercept': False, 'positive': False, 'max_iter': 3479, 'tol': 2.7672205899286582e-05, 'selection': 'cyclic', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.05662908076317571</v>
+        <v>-0.07894325772446768</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9353040425603222</v>
+        <v>0.9133038772898651</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06919272659765473</v>
+        <v>0.06847177486771061</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3051430255586</v>
+        <v>1.298371294885938</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1623229101214858</v>
+        <v>0.2537949445830594</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05662908076317571</v>
+        <v>0.07894325772446768</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05541750398021474</v>
+        <v>0.05319390287433191</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'n_estimators': 205, 'learning_rate': 0.010128226755057453, 'max_depth': 9, 'min_samples_split': 18, 'min_samples_leaf': 38, 'subsample': 0.5982917446158116, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
+          <t>{'alpha': 3.1686405824638593, 'l1_ratio': 0.0005064810187139907, 'fit_intercept': False, 'positive': False, 'max_iter': 3479, 'tol': 2.7672205899286582e-05, 'selection': 'cyclic', 'warm_start': True}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-1_TS-0_3</t>
+          <t>study_GradientBoosting_RS-1_TS-0_3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -842,57 +842,57 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 53, 'max_depth': 48, 'min_samples_split': 2, 'min_samples_leaf': 23, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 266, 'learning_rate': 0.049154540857804914, 'max_depth': 7, 'min_samples_split': 73, 'min_samples_leaf': 47, 'subsample': 0.5788022963473864, 'max_features': 'log2', 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.07689460698609647</v>
+        <v>-0.09771553152271473</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9226665439517223</v>
+        <v>0.9021118267527642</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03555714975868668</v>
+        <v>0.04236232048255845</v>
       </c>
       <c r="L7" t="n">
-        <v>1.104427350290179</v>
+        <v>1.482711763028637</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09277196787362511</v>
+        <v>0.1385243490080395</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07689460698609647</v>
+        <v>0.09771553152271473</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0136555663209982</v>
+        <v>0.0173411456472122</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 53, 'max_depth': 48, 'min_samples_split': 2, 'min_samples_leaf': 23, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 266, 'learning_rate': 0.049154540857804914, 'max_depth': 7, 'min_samples_split': 73, 'min_samples_leaf': 47, 'subsample': 0.5788022963473864, 'max_features': 'log2', 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-2_TS-0_3</t>
+          <t>study_GradientBoosting_RS-2_TS-0_3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -902,57 +902,57 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 80, 'max_depth': 25, 'min_samples_split': 16, 'min_samples_leaf': 47, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 381, 'learning_rate': 0.01573348279860615, 'max_depth': 10, 'min_samples_split': 19, 'min_samples_leaf': 49, 'subsample': 0.5581852751494744, 'max_features': 'log2', 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.06650338383113596</v>
+        <v>-0.07271485234818194</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9290853977893535</v>
+        <v>0.9243137737522029</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0675858044741474</v>
+        <v>0.07659614354188449</v>
       </c>
       <c r="L8" t="n">
-        <v>1.453276105864549</v>
+        <v>1.37902402086977</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3673861041925576</v>
+        <v>0.3292211399212737</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06650338383113596</v>
+        <v>0.07271485234818194</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05088269055378155</v>
+        <v>0.03375735730261314</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 80, 'max_depth': 25, 'min_samples_split': 16, 'min_samples_leaf': 47, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 381, 'learning_rate': 0.01573348279860615, 'max_depth': 10, 'min_samples_split': 19, 'min_samples_leaf': 49, 'subsample': 0.5581852751494744, 'max_features': 'log2', 'loss': 'huber'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-3_TS-0_3</t>
+          <t>study_GradientBoosting_RS-3_TS-0_3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -962,57 +962,57 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 57, 'max_depth': 8, 'min_samples_split': 36, 'min_samples_leaf': 38, 'max_features': 'log2', 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 138, 'learning_rate': 0.019648077475440295, 'max_depth': 1, 'min_samples_split': 47, 'min_samples_leaf': 17, 'subsample': 0.7348156380926859, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-0.008650670125191828</v>
+        <v>-0.01600021241719674</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9856773727544224</v>
+        <v>0.9755489530730875</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09848853163345087</v>
+        <v>0.06966946871200369</v>
       </c>
       <c r="L9" t="n">
-        <v>1.131448614707413</v>
+        <v>1.378804970313207</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06901660310888219</v>
+        <v>0.2502072210238214</v>
       </c>
       <c r="N9" t="n">
-        <v>0.008650670125191828</v>
+        <v>0.01600021241719674</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01185046324214484</v>
+        <v>0.02774137788814714</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 57, 'max_depth': 8, 'min_samples_split': 36, 'min_samples_leaf': 38, 'max_features': 'log2', 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 138, 'learning_rate': 0.019648077475440295, 'max_depth': 1, 'min_samples_split': 47, 'min_samples_leaf': 17, 'subsample': 0.7348156380926859, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-4_TS-0_3</t>
+          <t>study_GradientBoosting_RS-4_TS-0_3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1022,57 +1022,57 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 72, 'max_depth': 36, 'min_samples_split': 31, 'min_samples_leaf': 45, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 259, 'learning_rate': 0.015110333549432734, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 41, 'subsample': 0.5490911018018693, 'max_features': 'sqrt', 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.0457279296177312</v>
+        <v>-0.0596230799423156</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J10" t="n">
-        <v>0.956692385373207</v>
+        <v>0.9431871614373336</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1577036110661096</v>
+        <v>0.1585385630733418</v>
       </c>
       <c r="L10" t="n">
-        <v>1.573654956123381</v>
+        <v>2.189824563988982</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1505764688369368</v>
+        <v>0.0666644615018317</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0457279296177312</v>
+        <v>0.0596230799423156</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02019900089554132</v>
+        <v>0.03614096377412242</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 72, 'max_depth': 36, 'min_samples_split': 31, 'min_samples_leaf': 45, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 259, 'learning_rate': 0.015110333549432734, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 41, 'subsample': 0.5490911018018693, 'max_features': 'sqrt', 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-5_TS-0_3</t>
+          <t>study_GradientBoosting_RS-5_TS-0_3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-26_21-05</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1082,36 +1082,1236 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 97, 'max_depth': 7, 'min_samples_split': 39, 'min_samples_leaf': 35, 'max_features': 'sqrt', 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 420, 'learning_rate': 0.00915507177525712, 'max_depth': 10, 'min_samples_split': 20, 'min_samples_leaf': 48, 'subsample': 0.5615444636103274, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.05187659504373573</v>
+        <v>-0.06298607604115898</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9409580157657259</v>
+        <v>0.9270301556449573</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07678260716757242</v>
+        <v>0.05462234967781022</v>
       </c>
       <c r="L11" t="n">
-        <v>1.046226384684378</v>
+        <v>1.385941430120361</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02518153562577972</v>
+        <v>0.18373008939409</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05187659504373573</v>
+        <v>0.06298607604115898</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04877323419459878</v>
+        <v>0.0706335316960704</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 97, 'max_depth': 7, 'min_samples_split': 39, 'min_samples_leaf': 35, 'max_features': 'sqrt', 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 420, 'learning_rate': 0.00915507177525712, 'max_depth': 10, 'min_samples_split': 20, 'min_samples_leaf': 48, 'subsample': 0.5615444636103274, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 12, 'weights': 'uniform', 'algorithm': 'brute', 'leaf_size': 54, 'p': 1, 'metric': 'euclidean'}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.06890464442883475</v>
+      </c>
+      <c r="I12" t="n">
+        <v>200</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9319600260641335</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.08146584347574257</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.277020065462889</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.07813797959621434</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06890464442883475</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.05401328400409682</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 12, 'weights': 'uniform', 'algorithm': 'brute', 'leaf_size': 54, 'p': 1, 'metric': 'euclidean'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 36, 'weights': 'uniform', 'algorithm': 'kd_tree', 'leaf_size': 23, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.04741273812147229</v>
+      </c>
+      <c r="I13" t="n">
+        <v>200</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9520869688155741</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1002995825800109</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.452199665565925</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4397186999821667</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04741273812147229</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.009869027841854349</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 36, 'weights': 'uniform', 'algorithm': 'kd_tree', 'leaf_size': 23, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 27, 'weights': 'uniform', 'algorithm': 'ball_tree', 'leaf_size': 48, 'p': 2, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.01189285928533856</v>
+      </c>
+      <c r="I14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9831925625929676</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1125096156545538</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.670967576442412</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4736530587564477</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01189285928533856</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.03723475840794509</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 27, 'weights': 'uniform', 'algorithm': 'ball_tree', 'leaf_size': 48, 'p': 2, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 15, 'weights': 'uniform', 'algorithm': 'brute', 'leaf_size': 47, 'p': 2, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.03484533655625155</v>
+      </c>
+      <c r="I15" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9613410844776676</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.118098792621132</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.565537354352062</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.00313994375932</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.03484533655625155</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.02739344173582986</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 15, 'weights': 'uniform', 'algorithm': 'brute', 'leaf_size': 47, 'p': 2, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 28, 'weights': 'uniform', 'algorithm': 'brute', 'leaf_size': 49, 'p': 1, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.04773491593207409</v>
+      </c>
+      <c r="I16" t="n">
+        <v>200</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9507098294720132</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1177563522816971</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.389755780612129</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1631156734391259</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04773491593207409</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.006287506763661206</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 28, 'weights': 'uniform', 'algorithm': 'brute', 'leaf_size': 49, 'p': 1, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 69, 'max_depth': 37, 'min_samples_split': 13, 'min_samples_leaf': 19, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.08029146202968147</v>
+      </c>
+      <c r="I17" t="n">
+        <v>300</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9194713967026327</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.04026925457144211</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.174821267621261</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1102022391390077</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.08029146202968147</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01298061242731871</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 69, 'max_depth': 37, 'min_samples_split': 13, 'min_samples_leaf': 19, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 80, 'max_depth': 25, 'min_samples_split': 16, 'min_samples_leaf': 47, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.06650338383113596</v>
+      </c>
+      <c r="I18" t="n">
+        <v>300</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9290853977893535</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0675858044741474</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.453276105864549</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3673861041925576</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06650338383113596</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.05088269055378155</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 80, 'max_depth': 25, 'min_samples_split': 16, 'min_samples_leaf': 47, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 75, 'max_depth': 9, 'min_samples_split': 35, 'min_samples_leaf': 38, 'max_features': 'log2', 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.01233404702553468</v>
+      </c>
+      <c r="I19" t="n">
+        <v>300</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.980641880293374</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0832820459980964</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.242219841947931</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0819659834001006</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.01233404702553468</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.004335627611963019</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 75, 'max_depth': 9, 'min_samples_split': 35, 'min_samples_leaf': 38, 'max_features': 'log2', 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 81, 'max_depth': 49, 'min_samples_split': 34, 'min_samples_leaf': 46, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.04924124765477297</v>
+      </c>
+      <c r="I20" t="n">
+        <v>300</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9526710622365974</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1536935882806959</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.675418551107172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1287972885366572</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.04924124765477297</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0210655666345099</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 81, 'max_depth': 49, 'min_samples_split': 34, 'min_samples_leaf': 46, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 61, 'max_depth': 17, 'min_samples_split': 7, 'min_samples_leaf': 40, 'max_features': 'sqrt', 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.05811508019688619</v>
+      </c>
+      <c r="I21" t="n">
+        <v>300</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9317307567384083</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.05395520880068989</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.446248655307168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2604159439501693</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.05811508019688619</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.07180780094704882</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 61, 'max_depth': 17, 'min_samples_split': 7, 'min_samples_leaf': 40, 'max_features': 'sqrt', 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.577568262954083, 'epsilon': 0.7052637059622806, 'gamma_choice': 'auto', 'coef0': -0.4241495027997291, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1116122705299744</v>
+      </c>
+      <c r="I22" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8884019894535449</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0496222883565029</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.343298003454647</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.09138648122926671</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.1116122705299744</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.02488934577080392</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.577568262954083, 'gamma': 'auto', 'epsilon': 0.7052637059622806, 'coef0': -0.4241495027997291, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.06330990197914843, 'epsilon': 6.744584759374143e-06, 'gamma_choice': 'auto', 'coef0': 0.33492764986305346, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.04552861746099531</v>
+      </c>
+      <c r="I23" t="n">
+        <v>200</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9522523093897221</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.08338539584668887</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.332625239294069</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.272740326854336</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04552861746099531</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.01760210897856388</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.06330990197914843, 'gamma': 'auto', 'epsilon': 6.744584759374143e-06, 'coef0': 0.33492764986305346, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.14372678449172596, 'epsilon': 2.1831791860829683e-05, 'gamma_choice': 'float', 'gamma': 0.040243133848295615, 'coef0': -0.6677083877188794, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.04070230790675437</v>
+      </c>
+      <c r="I24" t="n">
+        <v>200</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9502345909540807</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.05791603455331928</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.41772266374457</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.05755718198177366</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.04070230790675437</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.03145490100962643</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.14372678449172596, 'gamma': 0.040243133848295615, 'epsilon': 2.1831791860829683e-05, 'coef0': -0.6677083877188794, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.001402951794001594, 'epsilon': 2.968953739680908e-06, 'gamma_choice': 'auto', 'coef0': -0.3787013680344258, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.04829297702713101</v>
+      </c>
+      <c r="I25" t="n">
+        <v>200</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9525300373712957</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1467026040340275</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.262838377420448</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.005013704204367</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.04829297702713101</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.02053104492434232</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.001402951794001594, 'gamma': 'auto', 'epsilon': 2.968953739680908e-06, 'coef0': -0.3787013680344258, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.19048015287551334, 'epsilon': 0.010595866285883337, 'gamma_choice': 'scale', 'coef0': -0.03845433926890847, 'shrinking': True}</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.09034599649517498</v>
+      </c>
+      <c r="I26" t="n">
+        <v>200</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8978740583267045</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.04131283331419999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.539516351294729</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2253121730018945</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.09034599649517498</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.08585367661942052</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.19048015287551334, 'gamma': 'scale', 'epsilon': 0.010595866285883337, 'coef0': -0.03845433926890847, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 287, 'max_depth': 12, 'learning_rate': 0.18108638708302646, 'subsample': 0.4451911443752756, 'colsample_bytree': 0.31163700400044836, 'colsample_bylevel': 0.8404417680289472, 'gamma': 9.995183087039859, 'min_child_weight': 7.423604499909982, 'reg_alpha': 2.433047671276239e-06, 'reg_lambda': 2.8961399240943765e-08, 'booster': 'dart', 'tree_method': 'auto'}</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.07830759311388873</v>
+      </c>
+      <c r="I27" t="n">
+        <v>200</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9215577715433998</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.05105626526390791</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.295766949893784</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.154179473903833</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.07830759311388873</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.02989880948381672</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 287, 'max_depth': 12, 'learning_rate': 0.18108638708302646, 'subsample': 0.4451911443752756, 'colsample_bytree': 0.31163700400044836, 'colsample_bylevel': 0.8404417680289472, 'gamma': 9.995183087039859, 'min_child_weight': 7.423604499909982, 'reg_alpha': 2.433047671276239e-06, 'reg_lambda': 2.8961399240943765e-08, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 418, 'max_depth': 1, 'learning_rate': 0.0068129874981811955, 'subsample': 0.6578870795753546, 'colsample_bytree': 0.6516897674418982, 'colsample_bylevel': 0.6012765351563394, 'gamma': 1.502641113350591, 'min_child_weight': 0.002318382960169795, 'reg_alpha': 2.9832525761342836, 'reg_lambda': 0.04958121287428262, 'booster': 'dart', 'tree_method': 'hist'}</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.04766548884678401</v>
+      </c>
+      <c r="I28" t="n">
+        <v>200</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9487477698902563</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.07541501291944865</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.479314686222365</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3739820683832188</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.04766548884678401</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.04216066253635275</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 418, 'max_depth': 1, 'learning_rate': 0.0068129874981811955, 'subsample': 0.6578870795753546, 'colsample_bytree': 0.6516897674418982, 'colsample_bylevel': 0.6012765351563394, 'gamma': 1.502641113350591, 'min_child_weight': 0.002318382960169795, 'reg_alpha': 2.9832525761342836, 'reg_lambda': 0.04958121287428262, 'booster': 'dart', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 134, 'max_depth': 1, 'learning_rate': 0.027259224243382934, 'subsample': 0.30083957421351204, 'colsample_bytree': 0.45342466943379345, 'colsample_bylevel': 0.38570752388849633, 'gamma': 2.488181863474909, 'min_child_weight': 0.08219362445017311, 'reg_alpha': 2.5605541582751714, 'reg_lambda': 5.2542834264269227e-08, 'booster': 'dart', 'tree_method': 'approx'}</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.01478377432014277</v>
+      </c>
+      <c r="I29" t="n">
+        <v>200</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9769071210418447</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.06958929669405214</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.370652307127406</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.07888076251869491</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01478377432014277</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.02111834444380931</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 134, 'max_depth': 1, 'learning_rate': 0.027259224243382934, 'subsample': 0.30083957421351204, 'colsample_bytree': 0.45342466943379345, 'colsample_bylevel': 0.38570752388849633, 'gamma': 2.488181863474909, 'min_child_weight': 0.08219362445017311, 'reg_alpha': 2.5605541582751714, 'reg_lambda': 5.2542834264269227e-08, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 298, 'max_depth': 6, 'learning_rate': 0.018661113251481995, 'subsample': 0.34035865375542956, 'colsample_bytree': 0.9279260981199017, 'colsample_bylevel': 0.5878342716208711, 'gamma': 7.037360554161368, 'min_child_weight': 9.93069112096021, 'reg_alpha': 0.0005492310097013046, 'reg_lambda': 5.023943685104709, 'booster': 'dart', 'tree_method': 'hist'}</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.03705849411257456</v>
+      </c>
+      <c r="I30" t="n">
+        <v>200</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9631616546130183</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1444453226444026</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.350895448340867</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5087245206139364</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.03705849411257456</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.02057291558363346</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 298, 'max_depth': 6, 'learning_rate': 0.018661113251481995, 'subsample': 0.34035865375542956, 'colsample_bytree': 0.9279260981199017, 'colsample_bylevel': 0.5878342716208711, 'gamma': 7.037360554161368, 'min_child_weight': 9.93069112096021, 'reg_alpha': 0.0005492310097013046, 'reg_lambda': 5.023943685104709, 'booster': 'dart', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 94, 'max_depth': 1, 'learning_rate': 0.02686661739173016, 'subsample': 0.30025484540430464, 'colsample_bytree': 0.47048448585980657, 'colsample_bylevel': 0.5614377589226094, 'gamma': 3.8074756767549234, 'min_child_weight': 0.2166408508084641, 'reg_alpha': 4.157430751900741e-06, 'reg_lambda': 9.292643498013264e-06, 'booster': 'gbtree', 'tree_method': 'hist'}</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.06272570445160604</v>
+      </c>
+      <c r="I31" t="n">
+        <v>200</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9265405331152428</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.04964781849806586</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.329227541887503</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1336500623177234</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.06272570445160604</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.07680614403193969</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 94, 'max_depth': 1, 'learning_rate': 0.02686661739173016, 'subsample': 0.30025484540430464, 'colsample_bytree': 0.47048448585980657, 'colsample_bylevel': 0.5614377589226094, 'gamma': 3.8074756767549234, 'min_child_weight': 0.2166408508084641, 'reg_alpha': 4.157430751900741e-06, 'reg_lambda': 9.292643498013264e-06, 'booster': 'gbtree', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
